--- a/parameter_journal.xlsx
+++ b/parameter_journal.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\dynamic_grouping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\dynamic_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75A68F3-D74E-4809-A937-C4094C9CD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C8DA1-66C0-4C8D-91CE-308DBAC0782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_case1" sheetId="1" r:id="rId1"/>
-    <sheet name="calculation_case1" sheetId="3" r:id="rId2"/>
-    <sheet name="calculation_case2" sheetId="4" r:id="rId3"/>
+    <sheet name="data_case2" sheetId="6" r:id="rId2"/>
+    <sheet name="calculation_case1" sheetId="3" r:id="rId3"/>
+    <sheet name="calculation_case2" sheetId="4" r:id="rId4"/>
+    <sheet name="case2_capacity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Components</t>
   </si>
@@ -98,6 +100,24 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>lamda new</t>
+  </si>
+  <si>
+    <t>beta new</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>[1, 4, 6, 3, 4, 3, 6, 6, 1, 3, 6, 4, 6, 3, 1]</t>
+  </si>
+  <si>
+    <t>[ 48.031 185.549 255.061  86.701]</t>
+  </si>
+  <si>
+    <t>[(1, [1, 9, 15]), (2, [2, 5, 12]), (3, [3, 7, 8, 11, 13]), (4, [4, 6, 10, 14])]</t>
   </si>
 </sst>
 </file>
@@ -432,15 +452,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H19" sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -518,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -570,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -596,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -648,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -700,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -726,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -752,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -778,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -804,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -830,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -856,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -882,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -908,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -941,20 +961,451 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8870B0FC-72C8-46AB-A2EF-487173CFB397}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>94.74</v>
+      </c>
+      <c r="C2">
+        <v>2.25</v>
+      </c>
+      <c r="D2">
+        <v>330</v>
+      </c>
+      <c r="E2">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>141.47</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>177.57</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>119.87</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>286.95999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1.73</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>278.77</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>3.45</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>191.34</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>205.11</v>
+      </c>
+      <c r="C6">
+        <v>1.63</v>
+      </c>
+      <c r="D6">
+        <v>310</v>
+      </c>
+      <c r="E6">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>184.41</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>170.21</v>
+      </c>
+      <c r="C7">
+        <v>2.63</v>
+      </c>
+      <c r="D7">
+        <v>390</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>210.52</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>280.37</v>
+      </c>
+      <c r="C8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>230</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>103.53</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>144.93</v>
+      </c>
+      <c r="C9">
+        <v>1.38</v>
+      </c>
+      <c r="D9">
+        <v>305</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>315.55</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>460</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>82.32</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>106.38</v>
+      </c>
+      <c r="C11">
+        <v>2.38</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>60.47</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>236.84</v>
+      </c>
+      <c r="C12">
+        <v>2.85</v>
+      </c>
+      <c r="D12">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>163.55000000000001</v>
+      </c>
+      <c r="C13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13">
+        <v>270</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>49.06</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>193.86</v>
+      </c>
+      <c r="C14">
+        <v>1.95</v>
+      </c>
+      <c r="D14">
+        <v>380</v>
+      </c>
+      <c r="E14">
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>135.51</v>
+      </c>
+      <c r="C15">
+        <v>1.8</v>
+      </c>
+      <c r="D15">
+        <v>290</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>259.42</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>91.79</v>
+      </c>
+      <c r="C16">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>126.53</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A96408-FB3D-417E-8EED-179A2D1ED555}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1000,7 +1451,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1023,7 +1474,7 @@
         <v>193.49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1046,7 +1497,7 @@
         <v>287.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1073,7 +1524,7 @@
         <v>25529.001651991042</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1096,7 +1547,7 @@
         <v>670.15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1119,7 +1570,7 @@
         <v>225.02</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1142,7 +1593,7 @@
         <v>278.79000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1168,7 +1619,7 @@
         <v>37.8684293584381</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1191,7 +1642,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1220,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1243,7 +1694,7 @@
         <v>259.36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1272,7 +1723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1295,7 +1746,7 @@
         <v>544.34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1324,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1347,7 +1798,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1370,7 +1821,7 @@
         <v>27.81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1393,7 +1844,7 @@
         <v>415.38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1422,115 +1873,862 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51B9871-1847-4BEE-AD75-FBC9333ABAF8}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>425</v>
+      </c>
+      <c r="C2">
+        <v>107</v>
+      </c>
+      <c r="D2">
+        <v>144.36000000000001</v>
+      </c>
+      <c r="E2">
+        <v>157.58000000000001</v>
+      </c>
+      <c r="F2">
+        <v>4.8</v>
+      </c>
+      <c r="G2">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>285.56</v>
+      </c>
+      <c r="E3">
+        <v>281.58999999999997</v>
+      </c>
+      <c r="F3">
+        <v>1.55</v>
+      </c>
+      <c r="G3">
+        <v>161.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>165</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>530.78</v>
+      </c>
+      <c r="E4">
+        <v>528.04</v>
+      </c>
+      <c r="F4">
+        <v>0.73</v>
+      </c>
+      <c r="G4">
+        <v>249.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>265</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>283.61</v>
+      </c>
+      <c r="E5">
+        <v>282.39</v>
+      </c>
+      <c r="F5">
+        <v>1.3</v>
+      </c>
+      <c r="G5">
+        <v>91.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>325</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>575.45000000000005</v>
+      </c>
+      <c r="E6">
+        <v>569.12</v>
+      </c>
+      <c r="F6">
+        <v>1.45</v>
+      </c>
+      <c r="G6">
+        <v>384.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>405</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>347.58</v>
+      </c>
+      <c r="E7">
+        <v>345.14</v>
+      </c>
+      <c r="F7">
+        <v>1.86</v>
+      </c>
+      <c r="G7">
+        <v>134.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>245</v>
+      </c>
+      <c r="C8">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>351.56</v>
+      </c>
+      <c r="E8">
+        <v>349.26</v>
+      </c>
+      <c r="F8">
+        <v>1.22</v>
+      </c>
+      <c r="G8">
+        <v>245.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>320</v>
+      </c>
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>655.17999999999995</v>
+      </c>
+      <c r="E9">
+        <v>649.91999999999996</v>
+      </c>
+      <c r="F9">
+        <v>1.77</v>
+      </c>
+      <c r="G9">
+        <v>334.37</v>
+      </c>
+      <c r="I9">
+        <v>34.645435480316401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>635</v>
+      </c>
+      <c r="C10">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>153.09</v>
+      </c>
+      <c r="E10">
+        <v>175.02</v>
+      </c>
+      <c r="F10">
+        <v>7.09</v>
+      </c>
+      <c r="G10">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>120</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>150.63</v>
+      </c>
+      <c r="E11">
+        <v>149.19</v>
+      </c>
+      <c r="F11">
+        <v>1.36</v>
+      </c>
+      <c r="G11">
+        <v>88.72</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>185</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>283.33</v>
+      </c>
+      <c r="E12">
+        <v>282.79000000000002</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>210.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>285</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>232.06</v>
+      </c>
+      <c r="E13">
+        <v>231.22</v>
+      </c>
+      <c r="F13">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G13">
+        <v>182.16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>395</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>448.53</v>
+      </c>
+      <c r="E14">
+        <v>445.38</v>
+      </c>
+      <c r="F14">
+        <v>1.8</v>
+      </c>
+      <c r="G14">
+        <v>425.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>305</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>302.19</v>
+      </c>
+      <c r="E15">
+        <v>297.23</v>
+      </c>
+      <c r="F15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G15">
+        <v>37.81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>415</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>161.44999999999999</v>
+      </c>
+      <c r="E16">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="F16">
+        <v>4.22</v>
+      </c>
+      <c r="G16">
+        <v>34.270000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A870AFAF-A111-4073-BA28-F9C593386DCD}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>2.15</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(B2/(1-0.7*(1-D2)), 2)</f>
+        <v>94.74</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(C2+0.5*(D2-1),2)</f>
+        <v>2.25</v>
+      </c>
+      <c r="I2">
+        <v>94.74</v>
+      </c>
+      <c r="J2">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>1.95</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3" si="0">ROUND(B3/(1-0.7*(1-D3)), 2)</f>
+        <v>177.57</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="1">ROUND(C3+0.5*(D3-1),2)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>177.57</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>297</v>
+      </c>
+      <c r="C4">
+        <v>1.7</v>
+      </c>
+      <c r="D4">
+        <v>1.05</v>
+      </c>
+      <c r="E4">
+        <f>ROUND(B4/(1-0.7*(1-D4)), 2)</f>
+        <v>286.95999999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.73</v>
+      </c>
+      <c r="I4">
+        <v>286.95999999999998</v>
+      </c>
+      <c r="J4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>3.45</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E16" si="2">ROUND(B5/(1-0.7*(1-D5)), 2)</f>
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.45</v>
+      </c>
+      <c r="I5">
+        <v>250</v>
+      </c>
+      <c r="J5">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>241</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>1.25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>205.11</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.63</v>
+      </c>
+      <c r="I6">
+        <v>205.11</v>
+      </c>
+      <c r="J6">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>1.25</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>170.21</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.63</v>
+      </c>
+      <c r="I7">
+        <v>170.21</v>
+      </c>
+      <c r="J7">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>300</v>
+      </c>
+      <c r="C8">
+        <v>2.25</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>280.37</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I8">
+        <v>280.37</v>
+      </c>
+      <c r="J8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9">
+        <v>1.35</v>
+      </c>
+      <c r="D9">
+        <v>1.05</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>144.93</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="I9">
+        <v>144.93</v>
+      </c>
+      <c r="J9">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>84</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>2.25</v>
+      </c>
+      <c r="D11">
+        <v>1.25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>106.38</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.38</v>
+      </c>
+      <c r="I11">
+        <v>106.38</v>
+      </c>
+      <c r="J11">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>270</v>
+      </c>
+      <c r="C12">
+        <v>2.75</v>
+      </c>
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>236.84</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.85</v>
+      </c>
+      <c r="I12">
+        <v>236.84</v>
+      </c>
+      <c r="J12">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>175</v>
+      </c>
+      <c r="C13">
+        <v>2.15</v>
+      </c>
+      <c r="D13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>163.55000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13">
+        <v>163.55000000000001</v>
+      </c>
+      <c r="J13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>221</v>
+      </c>
+      <c r="C14">
+        <v>1.85</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>193.86</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="I14">
+        <v>193.86</v>
+      </c>
+      <c r="J14">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>145</v>
+      </c>
+      <c r="C15">
+        <v>1.75</v>
+      </c>
+      <c r="D15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>135.51</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="I15">
+        <v>135.51</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>1.05</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>91.79</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I16">
+        <v>91.79</v>
+      </c>
+      <c r="J16">
+        <v>2.5299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/parameter_journal.xlsx
+++ b/parameter_journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\dynamic_grouping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\dynamic_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55C8DA1-66C0-4C8D-91CE-308DBAC0782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ADFB1-84A1-49B4-A1DF-5FD8C4917733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_case1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="calculation_case1" sheetId="3" r:id="rId3"/>
     <sheet name="calculation_case2" sheetId="4" r:id="rId4"/>
     <sheet name="case2_capacity" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Components</t>
   </si>
@@ -87,9 +91,6 @@
     <t>[2, 11, 3, 7, 5, 11, 11, 3, 2, 2, 11, 11, 5, 7, 7, 7, 5, 3]</t>
   </si>
   <si>
-    <t>[ 81.417 219.866 309.893  45.927 491.499]</t>
-  </si>
-  <si>
     <t>tgk</t>
   </si>
   <si>
@@ -114,10 +115,13 @@
     <t>[1, 4, 6, 3, 4, 3, 6, 6, 1, 3, 6, 4, 6, 3, 1]</t>
   </si>
   <si>
-    <t>[ 48.031 185.549 255.061  86.701]</t>
+    <t>[(1, [1, 9, 15]), (2, [2, 5, 12]), (3, [3, 7, 8, 11, 13]), (4, [4, 6, 10, 14])]</t>
   </si>
   <si>
-    <t>[(1, [1, 9, 15]), (2, [2, 5, 12]), (3, [3, 7, 8, 11, 13]), (4, [4, 6, 10, 14])]</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Di1</t>
   </si>
 </sst>
 </file>
@@ -133,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,12 +147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +166,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +450,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:H19"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -538,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -564,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -590,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -616,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -668,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -694,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -720,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -746,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -772,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -798,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -824,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -850,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -902,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -928,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -968,9 +966,9 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1022,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1126,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1230,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1360,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1395,17 +1393,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A96408-FB3D-417E-8EED-179A2D1ED555}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,8 +1425,11 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1450,8 +1451,11 @@
       <c r="G2">
         <v>49.88</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1471,10 +1475,13 @@
         <v>1.43622195</v>
       </c>
       <c r="G3">
-        <v>193.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>196.49</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1494,10 +1501,13 @@
         <v>0.70149892000000003</v>
       </c>
       <c r="G4">
-        <v>287.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>290.60000000000002</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1517,14 +1527,14 @@
         <v>1.30197289</v>
       </c>
       <c r="G5">
-        <v>91.05</v>
-      </c>
-      <c r="K5" s="2">
-        <f>37.8684293584381*674.15</f>
-        <v>25529.001651991042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92.05</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1544,10 +1554,13 @@
         <v>1.12514231</v>
       </c>
       <c r="G6">
-        <v>670.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>673.15</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1567,10 +1580,13 @@
         <v>1.5264526</v>
       </c>
       <c r="G7">
-        <v>225.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>228.02</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1590,10 +1606,13 @@
         <v>1.1374084799999999</v>
       </c>
       <c r="G8">
-        <v>278.79000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>281.79000000000002</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1613,13 +1632,14 @@
         <v>1.65173086</v>
       </c>
       <c r="G9">
-        <v>424</v>
-      </c>
-      <c r="I9" s="2">
-        <v>37.8684293584381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1639,10 +1659,13 @@
         <v>7.09412267</v>
       </c>
       <c r="G10">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93.7</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1662,16 +1685,19 @@
         <v>1.13256333</v>
       </c>
       <c r="G11">
-        <v>126.65</v>
+        <v>129.65</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="O11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1691,10 +1717,13 @@
         <v>0.87366754000000002</v>
       </c>
       <c r="G12">
-        <v>259.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>262.36</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1714,16 +1743,16 @@
         <v>2.0786204800000001</v>
       </c>
       <c r="G13">
-        <v>205.41</v>
-      </c>
-      <c r="I13" t="s">
+        <v>208.41</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
         <v>15</v>
       </c>
-      <c r="O13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1743,10 +1772,13 @@
         <v>1.5050784500000001</v>
       </c>
       <c r="G14">
-        <v>544.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>547.34</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1766,16 +1798,19 @@
         <v>2.0490613600000001</v>
       </c>
       <c r="G15">
-        <v>78.56</v>
+        <v>79.56</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1797,8 +1832,11 @@
       <c r="G16">
         <v>42.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1820,8 +1858,11 @@
       <c r="G17">
         <v>27.81</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1841,10 +1882,13 @@
         <v>1.1447041499999999</v>
       </c>
       <c r="G18">
-        <v>415.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418.38</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1864,7 +1908,10 @@
         <v>1.9358408600000001</v>
       </c>
       <c r="G19">
-        <v>307.93</v>
+        <v>310.93</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1878,15 +1925,15 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1908,8 +1955,11 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1931,8 +1981,11 @@
       <c r="G2">
         <v>16.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1952,10 +2005,13 @@
         <v>1.55</v>
       </c>
       <c r="G3">
-        <v>161.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>164.72</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1975,10 +2031,13 @@
         <v>0.73</v>
       </c>
       <c r="G4">
-        <v>249.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>252.27</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1998,10 +2057,13 @@
         <v>1.3</v>
       </c>
       <c r="G5">
-        <v>91.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>92.05</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2021,10 +2083,13 @@
         <v>1.45</v>
       </c>
       <c r="G6">
-        <v>384.71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>387.71</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2044,10 +2109,13 @@
         <v>1.86</v>
       </c>
       <c r="G7">
-        <v>134.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>137.62</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2067,10 +2135,13 @@
         <v>1.22</v>
       </c>
       <c r="G8">
-        <v>245.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>248.73</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2090,13 +2161,13 @@
         <v>1.77</v>
       </c>
       <c r="G9">
-        <v>334.37</v>
-      </c>
-      <c r="I9">
-        <v>34.645435480316401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>337.37</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2116,10 +2187,13 @@
         <v>7.09</v>
       </c>
       <c r="G10">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>93.7</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2139,13 +2213,16 @@
         <v>1.36</v>
       </c>
       <c r="G11">
-        <v>88.72</v>
+        <v>89.72</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2165,10 +2242,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>210.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>213.97</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2188,16 +2268,16 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="G13">
-        <v>182.16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
+        <v>185.16</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2217,10 +2297,13 @@
         <v>1.8</v>
       </c>
       <c r="G14">
-        <v>425.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>428.05</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2240,16 +2323,19 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="G15">
-        <v>37.81</v>
+        <v>38.81</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2269,11 +2355,15 @@
         <v>4.22</v>
       </c>
       <c r="G16">
-        <v>34.270000000000003</v>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2285,13 +2375,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,16 +2392,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2339,7 +2429,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2367,7 +2457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2395,7 +2485,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2423,7 +2513,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2451,7 +2541,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2479,7 +2569,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2507,7 +2597,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2535,7 +2625,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2563,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2591,7 +2681,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2619,7 +2709,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2647,7 +2737,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2675,7 +2765,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2703,7 +2793,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2734,4 +2824,205 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C21659-3019-44E8-996F-3C711CDB90A8}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16.11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>161.72</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>249.27</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>91.05</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>384.71</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>134.62</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>245.73</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>334.37</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>92.7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>88.72</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>210.97</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>182.16</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>425.05</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>37.81</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C16" xr:uid="{78C21659-3019-44E8-996F-3C711CDB90A8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+      <sortCondition ref="A1:A16"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/parameter_journal.xlsx
+++ b/parameter_journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\dynamic_grouping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\dynamic_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659ADFB1-84A1-49B4-A1DF-5FD8C4917733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470F61E8-DAEA-46E2-B2BC-B6FBE54CF436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_case1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <sheet name="calculation_case2" sheetId="4" r:id="rId4"/>
     <sheet name="case2_capacity" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">calculation_case1!$A$1:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">calculation_case2!$A$1:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet2!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet3!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Components</t>
   </si>
@@ -88,16 +94,10 @@
     <t>ti1</t>
   </si>
   <si>
-    <t>[2, 11, 3, 7, 5, 11, 11, 3, 2, 2, 11, 11, 5, 7, 7, 7, 5, 3]</t>
-  </si>
-  <si>
     <t>tgk</t>
   </si>
   <si>
     <t>genome</t>
-  </si>
-  <si>
-    <t>[(1, [1, 9, 10]), (2, [2, 6, 7, 11, 12]), (3, [3, 8, 18]), (4, [4, 14, 15, 16]), (5, [5, 13, 17])]</t>
   </si>
   <si>
     <t>group</t>
@@ -112,16 +112,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>[1, 4, 6, 3, 4, 3, 6, 6, 1, 3, 6, 4, 6, 3, 1]</t>
-  </si>
-  <si>
-    <t>[(1, [1, 9, 15]), (2, [2, 5, 12]), (3, [3, 7, 8, 11, 13]), (4, [4, 6, 10, 14])]</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>Di1</t>
+  </si>
+  <si>
+    <t>x*</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,15 +454,15 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,12 +488,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="C2">
         <v>2.15</v>
@@ -504,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.47</v>
+        <v>241.47</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -570,7 +574,7 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>3.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D5">
         <v>250</v>
@@ -588,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -596,10 +600,10 @@
         <v>241</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>81</v>
@@ -614,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -640,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -666,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,7 +678,7 @@
         <v>150</v>
       </c>
       <c r="C9">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
         <v>305</v>
@@ -692,15 +696,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="D10">
         <v>460</v>
@@ -712,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>82.32</v>
+        <v>312.32</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -726,7 +730,7 @@
         <v>125</v>
       </c>
       <c r="C11">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="D11">
         <v>105</v>
@@ -738,13 +742,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>60.47</v>
+        <v>260.47000000000003</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -770,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -778,7 +782,7 @@
         <v>175</v>
       </c>
       <c r="C13">
-        <v>2.15</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D13">
         <v>270</v>
@@ -796,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -816,13 +820,13 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>20.329999999999998</v>
+        <v>230.33</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -848,18 +852,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C16">
         <v>2.5</v>
       </c>
       <c r="D16">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -874,12 +878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C17">
         <v>2.0499999999999998</v>
@@ -900,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -920,13 +924,13 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>206.85</v>
+        <v>306.85000000000002</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -962,13 +966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8870B0FC-72C8-46AB-A2EF-487173CFB397}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,12 +998,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>94.74</v>
+        <v>201.75</v>
       </c>
       <c r="C2">
         <v>2.25</v>
@@ -1014,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.47</v>
+        <v>241.47</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>3.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="D5">
         <v>250</v>
@@ -1098,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1106,10 +1110,10 @@
         <v>205.11</v>
       </c>
       <c r="C6">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="D6">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <v>81</v>
@@ -1124,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1184,7 +1188,7 @@
         <v>144.93</v>
       </c>
       <c r="C9">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="D9">
         <v>305</v>
@@ -1202,15 +1206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="D10">
         <v>460</v>
@@ -1222,13 +1226,13 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>82.32</v>
+        <v>312.32</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>106.38</v>
       </c>
       <c r="C11">
-        <v>2.38</v>
+        <v>1.58</v>
       </c>
       <c r="D11">
         <v>105</v>
@@ -1248,13 +1252,13 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>60.47</v>
+        <v>260.47000000000003</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>163.55000000000001</v>
       </c>
       <c r="C13">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="D13">
         <v>270</v>
@@ -1306,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1326,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>20.329999999999998</v>
+        <v>230.33</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1358,18 +1362,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>91.79</v>
+        <v>149.76</v>
       </c>
       <c r="C16">
         <v>2.5299999999999998</v>
       </c>
       <c r="D16">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1386,24 +1390,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A96408-FB3D-417E-8EED-179A2D1ED555}">
+  <sheetPr>
+    <tabColor theme="2"/>
+  </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,11 +1433,11 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1440,22 +1448,22 @@
         <v>107</v>
       </c>
       <c r="D2">
-        <v>174.45</v>
+        <v>371.52</v>
       </c>
       <c r="E2">
-        <v>191.35299508</v>
+        <v>408.49</v>
       </c>
       <c r="F2">
-        <v>4.1121762200000003</v>
+        <v>1.93626802</v>
       </c>
       <c r="G2">
-        <v>49.88</v>
+        <v>169.02</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>317.54000000000002</v>
       </c>
       <c r="E3">
-        <v>313.35683748999998</v>
+        <v>313.36</v>
       </c>
       <c r="F3">
         <v>1.43622195</v>
@@ -1481,7 +1489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>569.22</v>
       </c>
       <c r="E4">
-        <v>566.36865924000006</v>
+        <v>566.37</v>
       </c>
       <c r="F4">
         <v>0.70149892000000003</v>
@@ -1507,7 +1515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1518,49 +1526,48 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>283.61</v>
+        <v>369.87</v>
       </c>
       <c r="E5">
-        <v>282.38920867000002</v>
+        <v>367.81</v>
       </c>
       <c r="F5">
-        <v>1.30197289</v>
+        <v>1.2008027699999999</v>
       </c>
       <c r="G5">
-        <v>92.05</v>
+        <v>179.47</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>96</v>
       </c>
       <c r="D6">
-        <v>862.54</v>
+        <v>368.95</v>
       </c>
       <c r="E6">
-        <v>854.55704584</v>
+        <v>364.98</v>
       </c>
       <c r="F6">
-        <v>1.12514231</v>
+        <v>1.20651171</v>
       </c>
       <c r="G6">
-        <v>673.15</v>
+        <v>183.57</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1574,7 +1581,7 @@
         <v>438.19</v>
       </c>
       <c r="E7">
-        <v>435.53507021000001</v>
+        <v>435.54</v>
       </c>
       <c r="F7">
         <v>1.5264526</v>
@@ -1586,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>384.71</v>
       </c>
       <c r="E8">
-        <v>382.3236756</v>
+        <v>382.32</v>
       </c>
       <c r="F8">
         <v>1.1374084799999999</v>
@@ -1612,7 +1619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1623,23 +1630,22 @@
         <v>105</v>
       </c>
       <c r="D9">
-        <v>745.26</v>
+        <v>500.52</v>
       </c>
       <c r="E9">
-        <v>739.55377362000002</v>
+        <v>496.52</v>
       </c>
       <c r="F9">
-        <v>1.65173086</v>
+        <v>1.91035467</v>
       </c>
       <c r="G9">
-        <v>427</v>
+        <v>183.97</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1650,22 +1656,22 @@
         <v>143</v>
       </c>
       <c r="D10">
-        <v>153.09</v>
+        <v>287.14999999999998</v>
       </c>
       <c r="E10">
-        <v>175.02143206</v>
+        <v>342.67</v>
       </c>
       <c r="F10">
-        <v>7.09412267</v>
+        <v>5.1377909500000003</v>
       </c>
       <c r="G10">
-        <v>93.7</v>
+        <v>30.35</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1676,28 +1682,25 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>188.71</v>
+        <v>479.17</v>
       </c>
       <c r="E11">
-        <v>187.11781137</v>
+        <v>474.73</v>
       </c>
       <c r="F11">
-        <v>1.13256333</v>
+        <v>0.80358797000000004</v>
       </c>
       <c r="G11">
-        <v>129.65</v>
+        <v>217.26</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
       <c r="O11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>331.75</v>
       </c>
       <c r="E12">
-        <v>331.18018711000002</v>
+        <v>331.18</v>
       </c>
       <c r="F12">
         <v>0.87366754000000002</v>
@@ -1723,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1734,25 +1737,29 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <v>255.33</v>
+        <v>271.89</v>
       </c>
       <c r="E13">
-        <v>254.46683263</v>
+        <v>270.93</v>
       </c>
       <c r="F13">
-        <v>2.0786204800000001</v>
+        <v>2.03904321</v>
       </c>
       <c r="G13">
-        <v>208.41</v>
+        <v>224.87</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
+      <c r="K13">
+        <f>SUM(F2:F19)*340.34</f>
+        <v>10420.960524174197</v>
+      </c>
       <c r="O13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1766,19 +1773,19 @@
         <v>568.19000000000005</v>
       </c>
       <c r="E14">
-        <v>564.67395886999998</v>
+        <v>564.66999999999996</v>
       </c>
       <c r="F14">
         <v>1.5050784500000001</v>
       </c>
       <c r="G14">
-        <v>547.34</v>
+        <v>337.34</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1792,51 +1799,48 @@
         <v>343.28</v>
       </c>
       <c r="E15">
-        <v>337.98016388000002</v>
+        <v>337.98</v>
       </c>
       <c r="F15">
         <v>2.0490613600000001</v>
       </c>
       <c r="G15">
-        <v>79.56</v>
+        <v>80.56</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C16">
         <v>65</v>
       </c>
       <c r="D16">
-        <v>169.57</v>
+        <v>281.92</v>
       </c>
       <c r="E16">
-        <v>168.90214318</v>
+        <v>281.25</v>
       </c>
       <c r="F16">
-        <v>4.0550589600000002</v>
+        <v>2.5625531100000001</v>
       </c>
       <c r="G16">
-        <v>42.37</v>
+        <v>156.72</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1847,22 +1851,22 @@
         <v>85</v>
       </c>
       <c r="D17">
-        <v>170.04</v>
+        <v>340.08</v>
       </c>
       <c r="E17">
-        <v>168.14794445999999</v>
+        <v>338.18</v>
       </c>
       <c r="F17">
-        <v>3.0071073199999998</v>
+        <v>1.5124179099999999</v>
       </c>
       <c r="G17">
-        <v>27.81</v>
+        <v>200.84</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1876,19 +1880,19 @@
         <v>625.97</v>
       </c>
       <c r="E18">
-        <v>622.23348214999999</v>
+        <v>622.23</v>
       </c>
       <c r="F18">
         <v>1.1447041499999999</v>
       </c>
       <c r="G18">
-        <v>418.38</v>
+        <v>318.38</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>555.89</v>
       </c>
       <c r="E19">
-        <v>551.89709803999995</v>
+        <v>551.9</v>
       </c>
       <c r="F19">
         <v>1.9358408600000001</v>
@@ -1922,18 +1926,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51B9871-1847-4BEE-AD75-FBC9333ABAF8}">
-  <dimension ref="A1:P16"/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,11 +1962,11 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1970,22 +1977,22 @@
         <v>107</v>
       </c>
       <c r="D2">
-        <v>144.36000000000001</v>
+        <v>307.41000000000003</v>
       </c>
       <c r="E2">
-        <v>157.58000000000001</v>
+        <v>336.46</v>
       </c>
       <c r="F2">
-        <v>4.8</v>
+        <v>2.2615550899999999</v>
       </c>
       <c r="G2">
-        <v>16.11</v>
+        <v>96.99</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v>281.58999999999997</v>
       </c>
       <c r="F3">
-        <v>1.55</v>
+        <v>1.5539181200000001</v>
       </c>
       <c r="G3">
         <v>164.72</v>
@@ -2011,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2028,7 +2035,7 @@
         <v>528.04</v>
       </c>
       <c r="F4">
-        <v>0.73</v>
+        <v>0.73393531999999995</v>
       </c>
       <c r="G4">
         <v>252.27</v>
@@ -2037,7 +2044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2048,48 +2055,48 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>283.61</v>
+        <v>369.87</v>
       </c>
       <c r="E5">
-        <v>282.39</v>
+        <v>367.81</v>
       </c>
       <c r="F5">
-        <v>1.3</v>
+        <v>1.2008027699999999</v>
       </c>
       <c r="G5">
-        <v>92.05</v>
+        <v>179.47</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>96</v>
       </c>
       <c r="D6">
-        <v>575.45000000000005</v>
+        <v>288.89</v>
       </c>
       <c r="E6">
-        <v>569.12</v>
+        <v>285.38</v>
       </c>
       <c r="F6">
-        <v>1.45</v>
+        <v>1.4479071999999999</v>
       </c>
       <c r="G6">
-        <v>387.71</v>
+        <v>103.97</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2106,7 +2113,7 @@
         <v>345.14</v>
       </c>
       <c r="F7">
-        <v>1.86</v>
+        <v>1.8585807299999999</v>
       </c>
       <c r="G7">
         <v>137.62</v>
@@ -2115,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>349.26</v>
       </c>
       <c r="F8">
-        <v>1.22</v>
+        <v>1.2225137100000001</v>
       </c>
       <c r="G8">
         <v>248.73</v>
@@ -2141,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2152,22 +2159,22 @@
         <v>105</v>
       </c>
       <c r="D9">
-        <v>655.17999999999995</v>
+        <v>454.66</v>
       </c>
       <c r="E9">
-        <v>649.91999999999996</v>
+        <v>450.89</v>
       </c>
       <c r="F9">
-        <v>1.77</v>
+        <v>2.0228658300000002</v>
       </c>
       <c r="G9">
-        <v>337.37</v>
+        <v>138.34</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2178,22 +2185,22 @@
         <v>143</v>
       </c>
       <c r="D10">
-        <v>153.09</v>
+        <v>287.14999999999998</v>
       </c>
       <c r="E10">
-        <v>175.02</v>
+        <v>342.67</v>
       </c>
       <c r="F10">
-        <v>7.09</v>
+        <v>5.1377909500000003</v>
       </c>
       <c r="G10">
-        <v>93.7</v>
+        <v>30.35</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2204,25 +2211,22 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>150.63</v>
+        <v>310.93</v>
       </c>
       <c r="E11">
-        <v>149.19</v>
+        <v>307.49</v>
       </c>
       <c r="F11">
-        <v>1.36</v>
+        <v>1.04459217</v>
       </c>
       <c r="G11">
-        <v>89.72</v>
+        <v>49.02</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>282.79000000000002</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.0023435000000001</v>
       </c>
       <c r="G12">
         <v>213.97</v>
@@ -2248,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2259,25 +2263,22 @@
         <v>110</v>
       </c>
       <c r="D13">
-        <v>232.06</v>
+        <v>245.94</v>
       </c>
       <c r="E13">
-        <v>231.22</v>
+        <v>245.03</v>
       </c>
       <c r="F13">
-        <v>2.2400000000000002</v>
+        <v>2.2033535</v>
       </c>
       <c r="G13">
-        <v>185.16</v>
+        <v>198.97</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="P13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2294,16 +2295,16 @@
         <v>445.38</v>
       </c>
       <c r="F14">
-        <v>1.8</v>
+        <v>1.7956133599999999</v>
       </c>
       <c r="G14">
-        <v>428.05</v>
+        <v>218.05</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2320,45 +2321,39 @@
         <v>297.23</v>
       </c>
       <c r="F15">
-        <v>2.2400000000000002</v>
+        <v>2.2409798799999998</v>
       </c>
       <c r="G15">
-        <v>38.81</v>
+        <v>39.81</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C16">
         <v>65</v>
       </c>
       <c r="D16">
-        <v>161.44999999999999</v>
+        <v>268.36</v>
       </c>
       <c r="E16">
-        <v>160.80000000000001</v>
+        <v>267.7</v>
       </c>
       <c r="F16">
-        <v>4.22</v>
+        <v>2.6704914099999999</v>
       </c>
       <c r="G16">
-        <v>35.270000000000003</v>
+        <v>144.16999999999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2369,19 +2364,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A870AFAF-A111-4073-BA28-F9C593386DCD}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2392,16 +2390,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2485,7 +2483,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2513,7 +2511,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2541,7 +2539,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2569,7 +2567,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2828,19 +2826,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C21659-3019-44E8-996F-3C711CDB90A8}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,10 +2849,10 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3025,4 +3026,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FE2F0D-AFAD-49E7-98CF-373A2F061229}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>150.91</v>
+      </c>
+      <c r="C2">
+        <v>333.79</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2+280</f>
+        <v>462.88</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>170</v>
+      </c>
+      <c r="C3">
+        <v>346.54</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3+280</f>
+        <v>456.54</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>150.91</v>
+      </c>
+      <c r="C4">
+        <v>427.8</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4+280</f>
+        <v>556.89</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>150.91</v>
+      </c>
+      <c r="C5">
+        <v>465.21</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5+280</f>
+        <v>594.29999999999995</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>150.91</v>
+      </c>
+      <c r="C6">
+        <v>298.75</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6+280</f>
+        <v>427.84000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>150.91</v>
+      </c>
+      <c r="C7">
+        <v>391.2</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7+280</f>
+        <v>520.29</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>150.91</v>
+      </c>
+      <c r="C8">
+        <v>358.9</v>
+      </c>
+      <c r="D8">
+        <f>C8-B8+280</f>
+        <v>487.99</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>403.35</v>
+      </c>
+      <c r="C9">
+        <v>439.35</v>
+      </c>
+      <c r="D9">
+        <f>C9-B9+280</f>
+        <v>316</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>340.42</v>
+      </c>
+      <c r="C10">
+        <v>382.42</v>
+      </c>
+      <c r="D10">
+        <f>C10-B10+280</f>
+        <v>322</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>303.14</v>
+      </c>
+      <c r="C11">
+        <v>363.14</v>
+      </c>
+      <c r="D11">
+        <f>C11-B11+280</f>
+        <v>340</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>312.16000000000003</v>
+      </c>
+      <c r="C12">
+        <v>362.16</v>
+      </c>
+      <c r="D12">
+        <f>C12-B12+280</f>
+        <v>330</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>539.41999999999996</v>
+      </c>
+      <c r="C13">
+        <v>609.41999999999996</v>
+      </c>
+      <c r="D13">
+        <f>C13-B13+280</f>
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E13" xr:uid="{01FE2F0D-AFAD-49E7-98CF-373A2F061229}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57750727-3D3E-4B27-8ED6-9767581C1704}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>72.5</v>
+      </c>
+      <c r="C2">
+        <v>336.46</v>
+      </c>
+      <c r="D2">
+        <v>398.96</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.93</v>
+      </c>
+      <c r="C3">
+        <v>281.58999999999997</v>
+      </c>
+      <c r="D3">
+        <v>413.65999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>413.77</v>
+      </c>
+      <c r="C4">
+        <v>528.04</v>
+      </c>
+      <c r="D4">
+        <v>249.26999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.93</v>
+      </c>
+      <c r="C5">
+        <v>367.81</v>
+      </c>
+      <c r="D5">
+        <v>499.88</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.93</v>
+      </c>
+      <c r="C6">
+        <v>285.38</v>
+      </c>
+      <c r="D6">
+        <v>417.45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5.93</v>
+      </c>
+      <c r="C7">
+        <v>345.14</v>
+      </c>
+      <c r="D7">
+        <v>477.21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>238.53</v>
+      </c>
+      <c r="C8">
+        <v>349.26</v>
+      </c>
+      <c r="D8">
+        <v>245.73</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>450.55</v>
+      </c>
+      <c r="C9">
+        <v>450.89</v>
+      </c>
+      <c r="D9">
+        <v>135.33999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>72.5</v>
+      </c>
+      <c r="C10">
+        <v>342.67</v>
+      </c>
+      <c r="D10">
+        <v>406.17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>72.5</v>
+      </c>
+      <c r="C11">
+        <v>307.49</v>
+      </c>
+      <c r="D11">
+        <v>369.99</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>206.82</v>
+      </c>
+      <c r="C12">
+        <v>282.79000000000002</v>
+      </c>
+      <c r="D12">
+        <v>210.97000000000003</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>184.06</v>
+      </c>
+      <c r="C13">
+        <v>245.03</v>
+      </c>
+      <c r="D13">
+        <v>195.97</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>365.33</v>
+      </c>
+      <c r="C14">
+        <v>445.38</v>
+      </c>
+      <c r="D14">
+        <v>215.05</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5.93</v>
+      </c>
+      <c r="C15">
+        <v>297.23</v>
+      </c>
+      <c r="D15">
+        <v>429.3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5.93</v>
+      </c>
+      <c r="C16">
+        <v>267.7</v>
+      </c>
+      <c r="D16">
+        <v>396.77</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/parameter_journal.xlsx
+++ b/parameter_journal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\dynamic_grouping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\dynamic_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470F61E8-DAEA-46E2-B2BC-B6FBE54CF436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0772A7-DD7E-4E77-B2D2-63FCC303C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_case1" sheetId="1" r:id="rId1"/>
@@ -166,11 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,12 +456,12 @@
       <selection activeCell="A2" sqref="A2:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -514,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -540,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -592,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -618,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -644,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -670,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -696,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -722,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -748,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -774,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -800,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -826,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -852,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -878,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -904,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -930,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -970,9 +969,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1102,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1310,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1405,13 +1404,13 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1463,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1567,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1892,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1935,12 +1934,12 @@
       <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2122,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2373,13 +2372,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2835,13 +2834,13 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2951,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3033,18 +3032,18 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3069,14 +3068,18 @@
         <v>333.79</v>
       </c>
       <c r="D2">
-        <f>C2-B2+280</f>
+        <f t="shared" ref="D2:D13" si="0">C2-B2+280</f>
         <v>462.88</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>D2+C2</f>
+        <v>796.67000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3087,14 +3090,18 @@
         <v>346.54</v>
       </c>
       <c r="D3">
-        <f>C3-B3+280</f>
+        <f t="shared" si="0"/>
         <v>456.54</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">D3+C3</f>
+        <v>803.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3105,14 +3112,18 @@
         <v>427.8</v>
       </c>
       <c r="D4">
-        <f>C4-B4+280</f>
+        <f t="shared" si="0"/>
         <v>556.89</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>984.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3123,14 +3134,18 @@
         <v>465.21</v>
       </c>
       <c r="D5">
-        <f>C5-B5+280</f>
+        <f t="shared" si="0"/>
         <v>594.29999999999995</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1059.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3141,14 +3156,18 @@
         <v>298.75</v>
       </c>
       <c r="D6">
-        <f>C6-B6+280</f>
+        <f t="shared" si="0"/>
         <v>427.84000000000003</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>726.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3159,14 +3178,18 @@
         <v>391.2</v>
       </c>
       <c r="D7">
-        <f>C7-B7+280</f>
+        <f t="shared" si="0"/>
         <v>520.29</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>911.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3177,14 +3200,18 @@
         <v>358.9</v>
       </c>
       <c r="D8">
-        <f>C8-B8+280</f>
+        <f t="shared" si="0"/>
         <v>487.99</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>846.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3195,14 +3222,18 @@
         <v>439.35</v>
       </c>
       <c r="D9">
-        <f>C9-B9+280</f>
+        <f t="shared" si="0"/>
         <v>316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>755.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3213,14 +3244,18 @@
         <v>382.42</v>
       </c>
       <c r="D10">
-        <f>C10-B10+280</f>
+        <f t="shared" si="0"/>
         <v>322</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>704.42000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3231,14 +3266,18 @@
         <v>363.14</v>
       </c>
       <c r="D11">
-        <f>C11-B11+280</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>703.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3249,14 +3288,18 @@
         <v>362.16</v>
       </c>
       <c r="D12">
-        <f>C12-B12+280</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>692.16000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3267,11 +3310,15 @@
         <v>609.41999999999996</v>
       </c>
       <c r="D13">
-        <f>C13-B13+280</f>
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="E13">
         <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>959.42</v>
       </c>
     </row>
   </sheetData>
@@ -3289,18 +3336,18 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3317,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3330,11 +3377,15 @@
       <c r="D2">
         <v>398.96</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>D2+C2</f>
+        <v>735.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3347,11 +3398,15 @@
       <c r="D3">
         <v>413.65999999999997</v>
       </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="0">D3+C3</f>
+        <v>695.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3364,11 +3419,15 @@
       <c r="D4">
         <v>249.26999999999998</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>777.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3381,11 +3440,15 @@
       <c r="D5">
         <v>499.88</v>
       </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>867.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3398,11 +3461,15 @@
       <c r="D6">
         <v>417.45</v>
       </c>
-      <c r="E6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>702.82999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3415,11 +3482,15 @@
       <c r="D7">
         <v>477.21</v>
       </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>822.34999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3432,11 +3503,15 @@
       <c r="D8">
         <v>245.73</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>594.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3449,11 +3524,15 @@
       <c r="D9">
         <v>135.33999999999997</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>586.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3466,11 +3545,15 @@
       <c r="D10">
         <v>406.17</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>748.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3483,11 +3566,15 @@
       <c r="D11">
         <v>369.99</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>677.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3500,11 +3587,15 @@
       <c r="D12">
         <v>210.97000000000003</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>493.76000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3517,11 +3608,15 @@
       <c r="D13">
         <v>195.97</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3534,11 +3629,15 @@
       <c r="D14">
         <v>215.05</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>660.43000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3551,11 +3650,15 @@
       <c r="D15">
         <v>429.3</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>726.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3568,15 +3671,13 @@
       <c r="D16">
         <v>396.77</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>664.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parameter_journal.xlsx
+++ b/parameter_journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\dynamic_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0772A7-DD7E-4E77-B2D2-63FCC303C3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D4CB03-C4DA-4949-9B12-28894A5160E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_case1" sheetId="1" r:id="rId1"/>
@@ -1930,8 +1930,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,10 +3336,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3347,7 +3347,7 @@
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3384,8 +3384,11 @@
         <f>D2+C2</f>
         <v>735.42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>263.95999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3405,8 +3408,11 @@
         <f t="shared" ref="H3:H16" si="0">D3+C3</f>
         <v>695.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>278.65999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3426,8 +3432,11 @@
         <f t="shared" si="0"/>
         <v>777.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>114.26999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3447,8 +3456,11 @@
         <f t="shared" si="0"/>
         <v>867.69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>364.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3468,8 +3480,11 @@
         <f t="shared" si="0"/>
         <v>702.82999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>282.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3489,8 +3504,11 @@
         <f t="shared" si="0"/>
         <v>822.34999999999991</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>342.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3510,8 +3528,11 @@
         <f t="shared" si="0"/>
         <v>594.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>110.72999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3531,8 +3552,11 @@
         <f t="shared" si="0"/>
         <v>586.23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.33999999999997499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3552,8 +3576,11 @@
         <f t="shared" si="0"/>
         <v>748.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>271.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3573,8 +3600,11 @@
         <f t="shared" si="0"/>
         <v>677.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>234.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3594,8 +3624,11 @@
         <f t="shared" si="0"/>
         <v>493.76000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>75.970000000000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3615,8 +3648,11 @@
         <f t="shared" si="0"/>
         <v>441</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>60.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3636,8 +3672,11 @@
         <f t="shared" si="0"/>
         <v>660.43000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>80.050000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3657,8 +3696,11 @@
         <f t="shared" si="0"/>
         <v>726.53</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>294.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3677,6 +3719,9 @@
       <c r="H16">
         <f t="shared" si="0"/>
         <v>664.47</v>
+      </c>
+      <c r="K16">
+        <v>261.77</v>
       </c>
     </row>
   </sheetData>
